--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2971777.927886525</v>
+        <v>2969525.848175318</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8557641.841275437</v>
+        <v>8557641.841275435</v>
       </c>
     </row>
     <row r="11">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>245.0998399144509</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>83.56741318567288</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247586</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>58.28185552386316</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>114.3606976213215</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>309.1881919424276</v>
+        <v>16.61609021059913</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>58.28185552386313</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>148.434892503107</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>240.3635537979618</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>129.539868031607</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>88.8970056106058</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>58.28185552386351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784707</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>41.33703994143053</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505377</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634798</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1667,10 +1667,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>104.1233804225859</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1847,16 +1847,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206846</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289878</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506637</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.61374123523283</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,19 +3184,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>168.4805514670949</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2234.477335940397</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C2" t="n">
-        <v>1865.514818999985</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2621.077176004519</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>2621.077176004519</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686067</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064742</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879448</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>570.3023580600379</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>420.1857186477022</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>272.2726250653091</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>125.3826775673987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>78.33486996962282</v>
@@ -4492,46 +4492,46 @@
         <v>176.6457242372931</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>805.3711496350312</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>583.6045342045572</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W4" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1528.069587875904</v>
+        <v>1274.539111149739</v>
       </c>
       <c r="C5" t="n">
-        <v>1159.107070935492</v>
+        <v>905.5765942093278</v>
       </c>
       <c r="D5" t="n">
-        <v>800.8413723287415</v>
+        <v>547.3108956025774</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2304.808759915837</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y5" t="n">
-        <v>1914.669427940025</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879448</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600379</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477022</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653091</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F7" t="n">
-        <v>125.3826775673987</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181845</v>
+        <v>770.9527709665616</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181845</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181845</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181845</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181845</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4878,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C10" t="n">
-        <v>511.4317969248226</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124869</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4993,19 +4993,19 @@
         <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>377.0996507379416</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>156.3070715944115</v>
       </c>
     </row>
     <row r="11">
@@ -5021,64 +5021,64 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
         <v>3094.515198591809</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>95.58405025273908</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>95.58405025273908</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>692.9625378792912</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1320.560501433898</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1872.470231673185</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2296.093381168253</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703119</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>526.565882642405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>526.565882642405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>526.565882642405</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,31 +5264,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5315,10 +5315,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5413,16 +5413,16 @@
         <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101817</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>422.7903292978459</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>422.7903292978459</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5738,34 +5738,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,16 +5832,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O21" t="n">
         <v>1859.536823237711</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>766.1780053015058</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>618.2649117191127</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>471.3749642212023</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>304.1788649360822</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6072,22 +6072,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6549,19 +6549,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6719,7 +6719,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6783,22 +6783,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
         <v>402.7245934908939</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6926,16 +6926,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,13 +7017,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7190,7 +7190,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2074.122646505557</v>
       </c>
       <c r="P39" t="n">
         <v>2283.159972732779</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7397,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>104.0840080815007</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>61.40075786968299</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922451</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556013</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.6341900408526</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.6809716109911</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25072,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>57.22910392194225</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>740460.6509162888</v>
+        <v>740460.6509162887</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>740460.6509162887</v>
+        <v>740460.6509162888</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>697885.5043846407</v>
+      </c>
+      <c r="C2" t="n">
         <v>697885.504384641</v>
       </c>
-      <c r="C2" t="n">
-        <v>697885.5043846408</v>
-      </c>
       <c r="D2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="G2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="H2" t="n">
         <v>686074.6097365055</v>
-      </c>
-      <c r="G2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="H2" t="n">
-        <v>686074.6097365058</v>
       </c>
       <c r="I2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="J2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="K2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365059</v>
+      </c>
+      <c r="N2" t="n">
         <v>686074.6097365058</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>686074.6097365059</v>
       </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365061</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26366,19 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.14093847211916e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26415,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405262</v>
+        <v>93596.74410405263</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
+        <v>14826.69604186728</v>
+      </c>
+      <c r="F4" t="n">
+        <v>14826.69604186738</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14826.69604186728</v>
+      </c>
+      <c r="H4" t="n">
         <v>14826.69604186736</v>
-      </c>
-      <c r="F4" t="n">
-        <v>14826.69604186737</v>
-      </c>
-      <c r="G4" t="n">
-        <v>14826.69604186738</v>
-      </c>
-      <c r="H4" t="n">
-        <v>14826.69604186738</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
@@ -26451,10 +26451,10 @@
         <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186735</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-832389.9260083971</v>
+        <v>-832389.9260083974</v>
       </c>
       <c r="C6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191947</v>
       </c>
       <c r="D6" t="n">
-        <v>496354.819719195</v>
+        <v>496354.8197191951</v>
       </c>
       <c r="E6" t="n">
-        <v>244712.9220633756</v>
+        <v>244678.1841379406</v>
       </c>
       <c r="F6" t="n">
-        <v>570125.3838707315</v>
+        <v>570090.6459452953</v>
       </c>
       <c r="G6" t="n">
-        <v>570125.3838707311</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="H6" t="n">
-        <v>570125.3838707313</v>
+        <v>570090.6459452955</v>
       </c>
       <c r="I6" t="n">
-        <v>570125.3838707313</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="J6" t="n">
-        <v>352594.1814734539</v>
+        <v>352559.4435480181</v>
       </c>
       <c r="K6" t="n">
-        <v>570125.3838707312</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="L6" t="n">
-        <v>570125.3838707313</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="M6" t="n">
-        <v>485070.3559352194</v>
+        <v>485035.6180097839</v>
       </c>
       <c r="N6" t="n">
-        <v>570125.3838707315</v>
+        <v>570090.6459452957</v>
       </c>
       <c r="O6" t="n">
-        <v>570125.3838707313</v>
+        <v>570090.6459452958</v>
       </c>
       <c r="P6" t="n">
-        <v>570125.3838707312</v>
+        <v>570090.645945296</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>278.1987997483754</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="E3" t="n">
-        <v>278.1987997483759</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>109.5832017062321</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>323.3086325560386</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.595168441781425e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>107.7439527351651</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>75.40832771012046</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27622,7 +27622,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>72.7421781298342</v>
+        <v>365.3142798616627</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>107.7439527351651</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>41.33413282833487</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>108.8774149194512</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>240.1912326468621</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>90.93497457133149</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -28065,10 +28065,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>160.3027978282313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-5.059107147259886e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31613,7 +31613,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
         <v>557.708647897025</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,22 +32084,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O15" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>232.75998908852</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>453.4978307576758</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32810,16 +32810,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,16 +33737,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,28 +33968,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>345.1232217852619</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>322.7581251332984</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L4" t="n">
         <v>157.2826706286436</v>
@@ -34869,13 +34869,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35261,7 +35261,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
         <v>415.1124034525806</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,22 +35732,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O15" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>314.9434509778017</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36458,7 +36458,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
